--- a/Iteration 3/Survey/Survey_pg2.xlsx
+++ b/Iteration 3/Survey/Survey_pg2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Application Assessment</t>
   </si>
@@ -30,43 +30,146 @@
     <t xml:space="preserve"> Misread</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Section 1 - Numerical Referencing</t>
-  </si>
-  <si>
-    <t>Section 2 -Spoken Link Name Referencing</t>
-  </si>
-  <si>
     <t>Nothing happens</t>
   </si>
   <si>
-    <t>Use case 1</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>No. Retries</t>
-  </si>
-  <si>
-    <t>Use case 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorrect </t>
-  </si>
-  <si>
-    <t>If incorrect</t>
-  </si>
-  <si>
     <t>Use Cases</t>
   </si>
   <si>
     <t>Recognition error</t>
+  </si>
+  <si>
+    <t>Numerical Referencing</t>
+  </si>
+  <si>
+    <t>Spoken Link Name Referencing</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>Yes (Wait for World links page to load)</t>
+  </si>
+  <si>
+    <t>Dissidents</t>
+  </si>
+  <si>
+    <t>Yes (Wait for World stories page to load)</t>
+  </si>
+  <si>
+    <t>Backwards</t>
+  </si>
+  <si>
+    <t>Yes (Wait for the World links page to load)</t>
+  </si>
+  <si>
+    <t>Yes (Wait for the home page to load)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User returns home and navigates to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entertainment</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> section and wants to read the article on Michael Jackson in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entertainment</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> section.</t>
+    </r>
+  </si>
+  <si>
+    <t>Paramedics</t>
+  </si>
+  <si>
+    <t>Yes (Wait for Entertainment links page to load)</t>
+  </si>
+  <si>
+    <t>Up (Navigate to the top of the page)</t>
+  </si>
+  <si>
+    <t>Down (Reads MJ article on the links page and navigates down to the bottom of the page)</t>
+  </si>
+  <si>
+    <t>Grease</t>
+  </si>
+  <si>
+    <t>Yes (Wait for Entertainment stories page to load)</t>
+  </si>
+  <si>
+    <t>User likes the Entertainment section and scrolls up to read the first article on Kanye West</t>
+  </si>
+  <si>
+    <t>Up (Navigate to the up to the first article)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User wants to read an article on world affairs and navigates to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>World</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> section on the home page.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The article is not found  and the user browses through the articles on the current page. At the top of the articles page, the user realises the article is not on this page. </t>
   </si>
 </sst>
 </file>
@@ -113,14 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,51 +384,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -360,25 +448,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,430 +802,1032 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
-    <col min="8" max="8" width="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" customWidth="1"/>
+    <col min="2" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="18.75">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="18.75">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" s="22" customFormat="1" ht="15.75">
-      <c r="A3" s="38" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="15.75">
+      <c r="A2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="18.75">
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A6" s="66">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" s="36" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="66">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+    </row>
+    <row r="14" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="34" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A16" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A17" s="67">
+        <v>13</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+    </row>
+    <row r="18" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A18" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="1:15" s="36" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+    </row>
+    <row r="20" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A20" s="68">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+    </row>
+    <row r="21" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A21" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+    </row>
+    <row r="22" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A22" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+    </row>
+    <row r="23" spans="1:15" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A23" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+    </row>
+    <row r="24" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+    </row>
+    <row r="25" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+    </row>
+    <row r="26" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="65"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+    </row>
+    <row r="27" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="65"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="65"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+    </row>
+    <row r="29" spans="1:15" s="64" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15" s="64" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="27" t="s">
+      <c r="L30" s="26"/>
+      <c r="M30" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="27" t="s">
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
+    </row>
+    <row r="31" spans="1:15" s="56" customFormat="1" ht="30">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75">
+      <c r="A32" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A33" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A34" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" s="22" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A35" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A36" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A37" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A38" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="49"/>
+    </row>
+    <row r="39" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A39" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+    </row>
+    <row r="40" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A40" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+    </row>
+    <row r="41" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A41" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+    </row>
+    <row r="42" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A42" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+    </row>
+    <row r="43" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A43" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+    </row>
+    <row r="44" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A44" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="21" customFormat="1" ht="18.75">
-      <c r="A5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-    </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-    </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="19" spans="1:15" ht="18.75">
-      <c r="A19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="18.75">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="19"/>
+    </row>
+    <row r="45" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A45" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+    </row>
+    <row r="46" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A46" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+    </row>
+    <row r="47" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A47" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+    </row>
+    <row r="48" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A48" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+    </row>
+    <row r="49" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A49" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+    </row>
+    <row r="50" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A50" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="44"/>
+    </row>
+    <row r="51" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A51" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+    </row>
+    <row r="53" spans="1:15" ht="18.75">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A7:F7"/>
+  <mergeCells count="24">
+    <mergeCell ref="A50:O50"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A22:O22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
